--- a/public/data/templates/mine-tag-list.xlsx
+++ b/public/data/templates/mine-tag-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WebStormProjects\mining-company-management-system-backend\public\data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2CC122-CDE1-450E-8F6A-3F48A54CA2C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D279C03-BB05-4A3B-9C7E-1FF928BF0E1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t xml:space="preserve">       ORIGIN REPORT OF MINERALS AND TAG NUMBERS</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>NZARAMBA DANY</t>
+  </si>
+  <si>
+    <t>KZM CEO</t>
   </si>
   <si>
     <r>
@@ -71,11 +74,8 @@
         <rFont val="Arial Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>MATERIAL : WOLFRAMITE</t>
+      <t>MATERIAL :</t>
     </r>
-  </si>
-  <si>
-    <t>KZM CEO</t>
   </si>
   <si>
     <r>
@@ -88,40 +88,8 @@
         <rFont val="Arial Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">BUYER: HALCYON INC. </t>
+      <t xml:space="preserve">BUYER: </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">AFTER PROCESSING AND SAMPLING THE NET WEIGHT IS </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25,106</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KGS</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPLE 8KGS </t>
-  </si>
-  <si>
-    <t>DUST 40KGS</t>
   </si>
   <si>
     <r>
@@ -134,7 +102,7 @@
         <rFont val="Arial Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>LOT N°: WKKIG2303</t>
+      <t xml:space="preserve">LOT N°: </t>
     </r>
   </si>
   <si>
@@ -148,11 +116,11 @@
         <rFont val="Arial Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">  iTSCi SHIPMENT NUMBER: KZM/RW/ 0000022</t>
+      <t xml:space="preserve">  iTSCi SHIPMENT NUMBER:</t>
     </r>
   </si>
   <si>
-    <t>EXPORT DATE : 13/11/2023</t>
+    <t>EXPORT DATE :</t>
   </si>
 </sst>
 </file>
@@ -160,7 +128,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -469,7 +437,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -943,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +972,7 @@
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="47"/>
       <c r="C4" s="48"/>
@@ -1040,7 +1008,7 @@
     </row>
     <row r="6" spans="1:14" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="50"/>
@@ -1056,7 +1024,7 @@
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="48"/>
@@ -1073,7 +1041,7 @@
     <row r="8" spans="1:14" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="60" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -1148,9 +1116,7 @@
       <c r="L11" s="58"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
-        <v>16</v>
-      </c>
+      <c r="B13" s="34"/>
       <c r="D13" s="34"/>
       <c r="E13" s="15"/>
       <c r="F13" s="55"/>
@@ -1158,9 +1124,7 @@
       <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
-        <v>17</v>
-      </c>
+      <c r="B14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="15"/>
       <c r="F14" s="55"/>
@@ -1168,9 +1132,7 @@
       <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
-        <v>18</v>
-      </c>
+      <c r="B15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="15"/>
       <c r="F15" s="55"/>
@@ -1197,7 +1159,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="15"/>
